--- a/new-project-directory/data/tidy_survey_data.xlsx
+++ b/new-project-directory/data/tidy_survey_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emmagomez-rivas/tfcb_2023/tfcb-homework01/new-project-directory/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5A54DBE2-769D-7A41-B5EF-138B2CB530DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44F52A3F-92C8-4E46-8428-CCF8F8C4785D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12460" yWindow="500" windowWidth="15840" windowHeight="15180" xr2:uid="{DDD4E4CC-3491-2440-945D-DBDC1578E8A9}"/>
   </bookViews>
@@ -447,7 +447,7 @@
   <dimension ref="A1:G49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="A2" sqref="A2:G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -477,96 +477,108 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>2013</v>
+        <v>1978</v>
       </c>
       <c r="B2">
-        <v>20130716</v>
+        <v>19780108</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
       </c>
       <c r="D2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>
+      </c>
+      <c r="F2">
+        <v>37</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>2013</v>
+        <v>1978</v>
       </c>
       <c r="B3">
-        <v>20130716</v>
+        <v>19780108</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
       </c>
       <c r="D3">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E3" t="s">
         <v>9</v>
-      </c>
-      <c r="F3">
-        <v>33</v>
-      </c>
-      <c r="G3" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>2013</v>
+        <v>1978</v>
       </c>
       <c r="B4">
-        <v>20130716</v>
+        <v>19780108</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
       </c>
       <c r="D4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E4" t="s">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="F4">
+        <v>48</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>2013</v>
+        <v>1978</v>
       </c>
       <c r="B5">
-        <v>20130716</v>
+        <v>19780108</v>
       </c>
       <c r="C5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E5" t="s">
         <v>9</v>
+      </c>
+      <c r="F5">
+        <v>52</v>
+      </c>
+      <c r="G5" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>2013</v>
+        <v>1978</v>
       </c>
       <c r="B6">
-        <v>20130718</v>
+        <v>19780108</v>
       </c>
       <c r="C6" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="D6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E6" t="s">
         <v>9</v>
       </c>
       <c r="F6">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G6" t="s">
         <v>13</v>
@@ -577,22 +589,16 @@
         <v>2013</v>
       </c>
       <c r="B7">
-        <v>20130718</v>
+        <v>20130716</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
       </c>
       <c r="D7">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7">
-        <v>48</v>
-      </c>
-      <c r="G7" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -600,19 +606,19 @@
         <v>2013</v>
       </c>
       <c r="B8">
-        <v>20130718</v>
+        <v>20130716</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
       </c>
       <c r="D8">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F8">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G8" t="s">
         <v>13</v>
@@ -623,22 +629,16 @@
         <v>2013</v>
       </c>
       <c r="B9">
-        <v>20130718</v>
+        <v>20130716</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
       </c>
       <c r="D9">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E9" t="s">
-        <v>8</v>
-      </c>
-      <c r="F9">
-        <v>37</v>
-      </c>
-      <c r="G9" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -646,22 +646,16 @@
         <v>2013</v>
       </c>
       <c r="B10">
-        <v>20130819</v>
+        <v>20130716</v>
       </c>
       <c r="C10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D10">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>8</v>
-      </c>
-      <c r="F10">
-        <v>52</v>
-      </c>
-      <c r="G10" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -669,19 +663,19 @@
         <v>2013</v>
       </c>
       <c r="B11">
-        <v>20131017</v>
+        <v>20130718</v>
       </c>
       <c r="C11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D11">
         <v>3</v>
       </c>
       <c r="E11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F11">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G11" t="s">
         <v>13</v>
@@ -692,19 +686,19 @@
         <v>2013</v>
       </c>
       <c r="B12">
-        <v>20131017</v>
+        <v>20130718</v>
       </c>
       <c r="C12" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D12">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F12">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G12" t="s">
         <v>13</v>
@@ -715,19 +709,19 @@
         <v>2013</v>
       </c>
       <c r="B13">
-        <v>20131112</v>
+        <v>20130718</v>
       </c>
       <c r="C13" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D13">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E13" t="s">
         <v>8</v>
       </c>
       <c r="F13">
-        <v>117</v>
+        <v>29</v>
       </c>
       <c r="G13" t="s">
         <v>13</v>
@@ -738,19 +732,19 @@
         <v>2013</v>
       </c>
       <c r="B14">
-        <v>20131113</v>
+        <v>20130718</v>
       </c>
       <c r="C14" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D14">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E14" t="s">
         <v>8</v>
       </c>
       <c r="F14">
-        <v>126</v>
+        <v>37</v>
       </c>
       <c r="G14" t="s">
         <v>13</v>
@@ -761,22 +755,22 @@
         <v>2013</v>
       </c>
       <c r="B15">
-        <v>20131113</v>
+        <v>20130819</v>
       </c>
       <c r="C15" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D15">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="E15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F15">
-        <v>132</v>
+        <v>52</v>
       </c>
       <c r="G15" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
@@ -784,22 +778,22 @@
         <v>2013</v>
       </c>
       <c r="B16">
-        <v>20131113</v>
+        <v>20131017</v>
       </c>
       <c r="C16" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D16">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="E16" t="s">
         <v>8</v>
       </c>
       <c r="F16">
-        <v>113</v>
+        <v>33</v>
       </c>
       <c r="G16" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
@@ -807,19 +801,19 @@
         <v>2013</v>
       </c>
       <c r="B17">
-        <v>20131113</v>
+        <v>20131017</v>
       </c>
       <c r="C17" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D17">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="E17" t="s">
         <v>8</v>
       </c>
       <c r="F17">
-        <v>122</v>
+        <v>50</v>
       </c>
       <c r="G17" t="s">
         <v>13</v>
@@ -830,19 +824,19 @@
         <v>2013</v>
       </c>
       <c r="B18">
-        <v>20131113</v>
+        <v>20131112</v>
       </c>
       <c r="C18" t="s">
         <v>7</v>
       </c>
       <c r="D18">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E18" t="s">
         <v>8</v>
       </c>
       <c r="F18">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="G18" t="s">
         <v>13</v>
@@ -859,13 +853,13 @@
         <v>7</v>
       </c>
       <c r="D19">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E19" t="s">
         <v>8</v>
       </c>
       <c r="F19">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="G19" t="s">
         <v>13</v>
@@ -876,22 +870,22 @@
         <v>2013</v>
       </c>
       <c r="B20">
-        <v>20131210</v>
+        <v>20131113</v>
       </c>
       <c r="C20" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D20">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F20">
-        <v>40</v>
+        <v>132</v>
       </c>
       <c r="G20" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
@@ -899,22 +893,22 @@
         <v>2013</v>
       </c>
       <c r="B21">
-        <v>20131210</v>
+        <v>20131113</v>
       </c>
       <c r="C21" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D21">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="E21" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F21">
-        <v>45</v>
+        <v>113</v>
       </c>
       <c r="G21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
@@ -922,19 +916,19 @@
         <v>2013</v>
       </c>
       <c r="B22">
-        <v>20131211</v>
+        <v>20131113</v>
       </c>
       <c r="C22" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D22">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E22" t="s">
         <v>8</v>
       </c>
       <c r="F22">
-        <v>41</v>
+        <v>122</v>
       </c>
       <c r="G22" t="s">
         <v>13</v>
@@ -942,36 +936,45 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="B23">
-        <v>20140108</v>
+        <v>20131113</v>
       </c>
       <c r="C23" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D23">
-        <v>2</v>
+        <v>4</v>
+      </c>
+      <c r="E23" t="s">
+        <v>8</v>
+      </c>
+      <c r="F23">
+        <v>107</v>
+      </c>
+      <c r="G23" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="B24">
-        <v>20140108</v>
+        <v>20131113</v>
       </c>
       <c r="C24" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D24">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F24">
-        <v>44</v>
+        <v>115</v>
       </c>
       <c r="G24" t="s">
         <v>13</v>
@@ -979,22 +982,22 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="B25">
-        <v>20140108</v>
+        <v>20131210</v>
       </c>
       <c r="C25" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D25">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E25" t="s">
         <v>8</v>
       </c>
       <c r="F25">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="G25" t="s">
         <v>13</v>
@@ -1002,16 +1005,16 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="B26">
-        <v>20140108</v>
+        <v>20131210</v>
       </c>
       <c r="C26" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E26" t="s">
         <v>9</v>
@@ -1025,16 +1028,25 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="B27">
-        <v>20140108</v>
+        <v>20131211</v>
       </c>
       <c r="C27" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D27">
-        <v>2</v>
+        <v>8</v>
+      </c>
+      <c r="E27" t="s">
+        <v>8</v>
+      </c>
+      <c r="F27">
+        <v>41</v>
+      </c>
+      <c r="G27" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
@@ -1045,19 +1057,10 @@
         <v>20140108</v>
       </c>
       <c r="C28" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D28">
         <v>2</v>
-      </c>
-      <c r="E28" t="s">
-        <v>9</v>
-      </c>
-      <c r="F28">
-        <v>157</v>
-      </c>
-      <c r="G28" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
@@ -1068,10 +1071,19 @@
         <v>20140108</v>
       </c>
       <c r="C29" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="D29">
         <v>2</v>
+      </c>
+      <c r="E29" t="s">
+        <v>9</v>
+      </c>
+      <c r="F29">
+        <v>44</v>
+      </c>
+      <c r="G29" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
@@ -1079,19 +1091,19 @@
         <v>2014</v>
       </c>
       <c r="B30">
-        <v>20140109</v>
+        <v>20140108</v>
       </c>
       <c r="C30" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E30" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F30">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="G30" t="s">
         <v>13</v>
@@ -1102,19 +1114,19 @@
         <v>2014</v>
       </c>
       <c r="B31">
-        <v>20140109</v>
+        <v>20140108</v>
       </c>
       <c r="C31" t="s">
         <v>5</v>
       </c>
       <c r="D31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F31">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="G31" t="s">
         <v>13</v>
@@ -1125,22 +1137,13 @@
         <v>2014</v>
       </c>
       <c r="B32">
-        <v>20140218</v>
+        <v>20140108</v>
       </c>
       <c r="C32" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D32">
         <v>2</v>
-      </c>
-      <c r="E32" t="s">
-        <v>9</v>
-      </c>
-      <c r="F32">
-        <v>218</v>
-      </c>
-      <c r="G32" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
@@ -1148,22 +1151,22 @@
         <v>2014</v>
       </c>
       <c r="B33">
-        <v>20140218</v>
+        <v>20140108</v>
       </c>
       <c r="C33" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="D33">
         <v>2</v>
       </c>
       <c r="E33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F33">
-        <v>7</v>
+        <v>157</v>
       </c>
       <c r="G33" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
@@ -1171,22 +1174,13 @@
         <v>2014</v>
       </c>
       <c r="B34">
-        <v>20140218</v>
+        <v>20140108</v>
       </c>
       <c r="C34" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="D34">
         <v>2</v>
-      </c>
-      <c r="E34" t="s">
-        <v>9</v>
-      </c>
-      <c r="F34">
-        <v>52</v>
-      </c>
-      <c r="G34" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
@@ -1194,7 +1188,7 @@
         <v>2014</v>
       </c>
       <c r="B35">
-        <v>20140313</v>
+        <v>20140109</v>
       </c>
       <c r="C35" t="s">
         <v>5</v>
@@ -1203,10 +1197,10 @@
         <v>1</v>
       </c>
       <c r="E35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F35">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="G35" t="s">
         <v>13</v>
@@ -1217,7 +1211,7 @@
         <v>2014</v>
       </c>
       <c r="B36">
-        <v>20140313</v>
+        <v>20140109</v>
       </c>
       <c r="C36" t="s">
         <v>5</v>
@@ -1229,7 +1223,7 @@
         <v>8</v>
       </c>
       <c r="F36">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="G36" t="s">
         <v>13</v>
@@ -1240,22 +1234,22 @@
         <v>2014</v>
       </c>
       <c r="B37">
-        <v>20140313</v>
+        <v>20140218</v>
       </c>
       <c r="C37" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F37">
-        <v>146</v>
+        <v>218</v>
       </c>
       <c r="G37" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
@@ -1263,19 +1257,19 @@
         <v>2014</v>
       </c>
       <c r="B38">
-        <v>20150311</v>
+        <v>20140218</v>
       </c>
       <c r="C38" t="s">
         <v>15</v>
       </c>
       <c r="D38">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E38" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F38">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G38" t="s">
         <v>13</v>
@@ -1286,16 +1280,22 @@
         <v>2014</v>
       </c>
       <c r="B39">
-        <v>20150408</v>
+        <v>20140218</v>
       </c>
       <c r="C39" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="D39">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E39" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="F39">
+        <v>52</v>
+      </c>
+      <c r="G39" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
@@ -1303,10 +1303,22 @@
         <v>2014</v>
       </c>
       <c r="B40">
-        <v>20150506</v>
+        <v>20140313</v>
+      </c>
+      <c r="C40" t="s">
+        <v>5</v>
       </c>
       <c r="D40">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="E40" t="s">
+        <v>8</v>
+      </c>
+      <c r="F40">
+        <v>51</v>
+      </c>
+      <c r="G40" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
@@ -1314,19 +1326,19 @@
         <v>2014</v>
       </c>
       <c r="B41">
-        <v>20150518</v>
+        <v>20140313</v>
       </c>
       <c r="C41" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="D41">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E41" t="s">
         <v>8</v>
       </c>
       <c r="F41">
-        <v>182</v>
+        <v>44</v>
       </c>
       <c r="G41" t="s">
         <v>13</v>
@@ -1337,19 +1349,19 @@
         <v>2014</v>
       </c>
       <c r="B42">
-        <v>20150609</v>
+        <v>20140313</v>
       </c>
       <c r="C42" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D42">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E42" t="s">
         <v>8</v>
       </c>
       <c r="F42">
-        <v>29</v>
+        <v>146</v>
       </c>
       <c r="G42" t="s">
         <v>13</v>
@@ -1357,22 +1369,22 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="B43">
-        <v>20150708</v>
+        <v>20150311</v>
       </c>
       <c r="C43" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D43">
         <v>3</v>
       </c>
       <c r="E43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F43">
-        <v>115</v>
+        <v>8</v>
       </c>
       <c r="G43" t="s">
         <v>13</v>
@@ -1380,10 +1392,10 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="B44">
-        <v>20150708</v>
+        <v>20150408</v>
       </c>
       <c r="C44" t="s">
         <v>14</v>
@@ -1392,73 +1404,61 @@
         <v>3</v>
       </c>
       <c r="E44" t="s">
-        <v>9</v>
-      </c>
-      <c r="F44">
-        <v>190</v>
-      </c>
-      <c r="G44" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="B45">
-        <v>19780108</v>
-      </c>
-      <c r="C45" t="s">
-        <v>5</v>
+        <v>20150506</v>
       </c>
       <c r="D45">
-        <v>4</v>
-      </c>
-      <c r="E45" t="s">
-        <v>8</v>
-      </c>
-      <c r="F45">
-        <v>37</v>
-      </c>
-      <c r="G45" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="B46">
-        <v>19780108</v>
+        <v>20150518</v>
       </c>
       <c r="C46" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="D46">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E46" t="s">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="F46">
+        <v>182</v>
+      </c>
+      <c r="G46" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="B47">
-        <v>19780108</v>
+        <v>20150609</v>
       </c>
       <c r="C47" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="D47">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E47" t="s">
         <v>8</v>
       </c>
       <c r="F47">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="G47" t="s">
         <v>13</v>
@@ -1466,22 +1466,22 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="B48">
-        <v>19780108</v>
+        <v>20150708</v>
       </c>
       <c r="C48" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D48">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E48" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F48">
-        <v>52</v>
+        <v>115</v>
       </c>
       <c r="G48" t="s">
         <v>13</v>
@@ -1489,22 +1489,22 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="B49">
-        <v>19780108</v>
+        <v>20150708</v>
       </c>
       <c r="C49" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D49">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E49" t="s">
         <v>9</v>
       </c>
       <c r="F49">
-        <v>35</v>
+        <v>190</v>
       </c>
       <c r="G49" t="s">
         <v>13</v>
